--- a/libraries/microLED/docs/libs comparsion.xlsx
+++ b/libraries/microLED/docs/libs comparsion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18945" windowHeight="10365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>LEDS</t>
   </si>
   <si>
-    <t>Частота, Гц</t>
-  </si>
-  <si>
     <t>Частота</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>Занимает, байт</t>
+  </si>
+  <si>
+    <t>Частота, Гц (с учётом мин. паузы между отправками)</t>
   </si>
 </sst>
 </file>
@@ -224,18 +224,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -267,6 +255,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,7 +551,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="A3:G7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,239 +564,239 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>8</v>
+      </c>
+      <c r="B3" s="10">
+        <v>400</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1818</v>
+      </c>
+      <c r="D3" s="10">
+        <v>3260</v>
+      </c>
+      <c r="E3" s="10">
+        <v>4782</v>
+      </c>
+      <c r="F3" s="10">
+        <v>4420</v>
+      </c>
+      <c r="G3" s="11">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>8</v>
-      </c>
-      <c r="B3" s="14">
+      <c r="B4" s="10">
         <v>400</v>
       </c>
-      <c r="C3" s="9">
-        <v>1818</v>
-      </c>
-      <c r="D3" s="14">
-        <v>3343</v>
-      </c>
-      <c r="E3" s="14">
-        <v>3436</v>
-      </c>
-      <c r="F3" s="14">
-        <v>3173</v>
-      </c>
-      <c r="G3" s="15">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>16</v>
-      </c>
-      <c r="B4" s="14">
-        <v>400</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="C4" s="5">
         <v>1264</v>
       </c>
-      <c r="D4" s="14">
-        <v>1760</v>
-      </c>
-      <c r="E4" s="14">
-        <v>1728</v>
-      </c>
-      <c r="F4" s="14">
-        <v>1594</v>
-      </c>
-      <c r="G4" s="15">
-        <v>1409</v>
+      <c r="D4" s="10">
+        <v>1751</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2663</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2437</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2462</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="4">
         <v>50</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="10">
         <v>333</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="5">
         <v>554</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>589</v>
       </c>
-      <c r="E5" s="14">
-        <v>556</v>
-      </c>
-      <c r="F5" s="14">
-        <v>513</v>
-      </c>
-      <c r="G5" s="15">
-        <v>453</v>
+      <c r="E5" s="10">
+        <v>923</v>
+      </c>
+      <c r="F5" s="10">
+        <v>840</v>
+      </c>
+      <c r="G5" s="11">
+        <v>848</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="4">
         <v>100</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="10">
         <v>220</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <v>301</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>298</v>
       </c>
-      <c r="E6" s="14">
-        <v>279</v>
-      </c>
-      <c r="F6" s="14">
-        <v>257</v>
-      </c>
-      <c r="G6" s="15">
-        <v>227</v>
+      <c r="E6" s="10">
+        <v>472</v>
+      </c>
+      <c r="F6" s="10">
+        <v>428</v>
+      </c>
+      <c r="G6" s="11">
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="7">
         <v>500</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <v>60</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="8">
         <v>65</v>
       </c>
-      <c r="D7" s="16">
-        <v>60</v>
-      </c>
-      <c r="E7" s="16">
-        <v>56</v>
-      </c>
-      <c r="F7" s="16">
-        <v>51</v>
-      </c>
-      <c r="G7" s="17">
-        <v>45</v>
+      <c r="D7" s="12">
+        <v>61</v>
+      </c>
+      <c r="E7" s="12">
+        <v>96</v>
+      </c>
+      <c r="F7" s="12">
+        <v>87</v>
+      </c>
+      <c r="G7" s="13">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
+      <c r="A9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5">
         <f>3286-500</f>
         <v>2786</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <f>2484-500</f>
         <v>1984</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <f>1446-500</f>
         <v>946</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <f>806-500</f>
         <v>306</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="5">
         <f>846-500</f>
         <v>346</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="6">
         <f>824-500</f>
         <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="E12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -840,30 +840,30 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>636</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>30.7</v>
